--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2396.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2396.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.071497166274776</v>
+        <v>1.091330051422119</v>
       </c>
       <c r="B1">
-        <v>2.357563454280084</v>
+        <v>2.404870271682739</v>
       </c>
       <c r="C1">
-        <v>7.229449359388576</v>
+        <v>4.97639274597168</v>
       </c>
       <c r="D1">
-        <v>1.77659194901276</v>
+        <v>2.278491258621216</v>
       </c>
       <c r="E1">
-        <v>0.9954424810624033</v>
+        <v>1.288783073425293</v>
       </c>
     </row>
   </sheetData>
